--- a/biology/Zoologie/Uli_Aschenborn/Uli_Aschenborn.xlsx
+++ b/biology/Zoologie/Uli_Aschenborn/Uli_Aschenborn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hans Ulrich (Uli) Aschenborn (né le 6 septembre 1947 à Johannesburg en Afrique du Sud - ) est, entre autres, un représentant de l’art animalier connu en Afrique australe comme déjà son père Dieter Aschenborn et son grand-père Hans Anton Aschenborn. Il est souvent présenté dans les journaux sur Internet. L'artiste est classé parmi les plus grands artistes du monde des XVIIIe et XXIe siècles d’après United Art Rating, (association russe des artistes)[1]. L'Ensad Alumni Paris, l'Association des anciens élèves de l'École nationale supérieure des arts décoratifs à Paris a nommé Uli Aschenborn membre d' honneur en 2018 [2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hans Ulrich (Uli) Aschenborn (né le 6 septembre 1947 à Johannesburg en Afrique du Sud - ) est, entre autres, un représentant de l’art animalier connu en Afrique australe comme déjà son père Dieter Aschenborn et son grand-père Hans Anton Aschenborn. Il est souvent présenté dans les journaux sur Internet. L'artiste est classé parmi les plus grands artistes du monde des XVIIIe et XXIe siècles d’après United Art Rating, (association russe des artistes). L'Ensad Alumni Paris, l'Association des anciens élèves de l'École nationale supérieure des arts décoratifs à Paris a nommé Uli Aschenborn membre d' honneur en 2018 .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques de son art</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa spécialité  sont ses tableaux dynamiques avec des scènes d’animaux en mouvement (des animaux en fuite, à l'attaque, les bouquets de fleurs qui semblent exploser etc.) En Namibie, les musées de Swakopmund et Windhoek ainsi que la National Art Gallery of Namibia présentent des œuvres de ce peintre.
 Intitulé par les médias namibiens  « Amazing Changing Art » (i.e. « incroyable art des transformations ») – les œuvres récentes du peintre sont en mutation - soit le tableau en  lui-même change, soit le visiteur le « fait changer » en passant devant – une allusion à l’art cinétique.
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1964 Le lauréat Art Competition South West Africa
 1978 Borchers-Plakette (Allemagne)</t>
@@ -576,7 +592,9 @@
           <t>Expositions individuelles (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1993 Dessins par ordinateur, reflets … cuirs, Galerie Artelier, Windhoek (Namibie)
 1999 Afrique, Port Andrat's (Majorque)
@@ -614,7 +632,9 @@
           <t>Expositions de groupe (sélection)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1965 Trois Générations Aschenborn, Windhoek (Namibie)
 1975 et 1976 Exposition-concours en hiver, Suermondt-Ludwig-Museum, Aix-la-Chapelle
